--- a/biology/Botanique/Rivea/Rivea.xlsx
+++ b/biology/Botanique/Rivea/Rivea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rivea est un genre de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales d'Asie du Sud, qui comprend 3 espèces acceptées. L'espèce-type est Rivea hypocrateriformis (Desr.) Choisy[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivea est un genre de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales d'Asie du Sud, qui comprend 3 espèces acceptées. L'espèce-type est Rivea hypocrateriformis (Desr.) Choisy.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Rivea », serait soit dérivé du terme latin rivus, ruisseau[2], soit plus vraisemblablement un hommage au médecin suisse, Auguste de la Rive (collègue de Choisy)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Rivea », serait soit dérivé du terme latin rivus, ruisseau, soit plus vraisemblablement un hommage au médecin suisse, Auguste de la Rive (collègue de Choisy).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition du genre Rivea s'étend depuis le sous-continent indien jusqu'à la péninsule indochinoise. Cette aire englobe les pays et régions suivants : Inde, Assam, Pakistan, Bangladesh, Népal, Sri Lanka, Laos,  Birmanie  et Thaïlande[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du genre Rivea s'étend depuis le sous-continent indien jusqu'à la péninsule indochinoise. Cette aire englobe les pays et régions suivants : Inde, Assam, Pakistan, Bangladesh, Népal, Sri Lanka, Laos,  Birmanie  et Thaïlande.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 novembre 2019)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 novembre 2019) :
 Rivea hypocrateriformis (Desr.) Choisy (1833 publ. 1834)
 Rivea ornata (Roxb.) Choisy (1833 publ. 1834)
 Rivea wightiana R.R.Mill (1996)</t>
